--- a/test-project-web-robotframework/resouces/testdata/testdata_shp.xlsx
+++ b/test-project-web-robotframework/resouces/testdata/testdata_shp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>tc_id</t>
   </si>
@@ -51,6 +51,11 @@
     <t>BLEACH เทพมรณะ เล่ม 67</t>
   </si>
   <si>
+    <t>SHP-0002
+FE
+shopping car</t>
+  </si>
+  <si>
     <t>SHP-0001-TD-002</t>
   </si>
   <si>
@@ -60,22 +65,18 @@
     <t>Jojo ล่าข้ามศตวรรษ ภาค 4 เพชรแท้ไม่มีวันสลาย เล่ม 4</t>
   </si>
   <si>
+    <t>SHP-0003
+FE
+shopping car</t>
+  </si>
+  <si>
     <t>SHP-0001-TD-003</t>
   </si>
   <si>
-    <t>SHP-0001-TD-004</t>
-  </si>
-  <si>
-    <t>SHP-0001-TD-005</t>
-  </si>
-  <si>
-    <t>SHP-0001-TD-006</t>
-  </si>
-  <si>
-    <t>SHP-0001-TD-007</t>
-  </si>
-  <si>
-    <t>SHP-0001-TD-008</t>
+    <t>นินจาคาถา โอ้โฮเฮะ เล่ม 23</t>
+  </si>
+  <si>
+    <t>นินจาคาถา โอ้โฮเฮะ เล่ม 66</t>
   </si>
 </sst>
 </file>
@@ -113,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -138,9 +139,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -187,10 +186,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -200,18 +199,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -221,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,7 +220,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,29 +234,38 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,12 +575,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="31.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="43.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -615,136 +614,126 @@
       <c r="F3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60.75">
-      <c r="A5" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11">
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="14">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60.75">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10" t="s">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test-project-web-robotframework/resouces/testdata/testdata_shp.xlsx
+++ b/test-project-web-robotframework/resouces/testdata/testdata_shp.xlsx
@@ -73,10 +73,10 @@
     <t>SHP-0001-TD-003</t>
   </si>
   <si>
-    <t>นินจาคาถา โอ้โฮเฮะ เล่ม 23</t>
-  </si>
-  <si>
-    <t>นินจาคาถา โอ้โฮเฮะ เล่ม 66</t>
+    <t>มหาศึกคนชนคน เล่ม 1</t>
+  </si>
+  <si>
+    <t>มหาศึกคนชนคน เล่ม 2</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
